--- a/Result/check3/2025-03-20.xlsx
+++ b/Result/check3/2025-03-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV26"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8383</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8192.0</t>
+          <t>12083.083</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>112</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9726</t>
+          <t>113285</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-9.07</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>231.0</t>
+          <t>297.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -818,87 +818,87 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>576874.0</t>
+          <t>775739772.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>千附</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>36.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>30.51%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>17.70%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.38</t>
+          <t>36.08</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>商品銷售63.23%、工程36.53%、勞務0.25% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>千附-其他電子業-上櫃</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 機電系統工程、金屬加工處理** 建材營造 - 機電工程、工程設計、工程承攬** 其他 - 其他</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12083.083</t>
+          <t>3620.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>55746</t>
+          <t>6822</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>297.0</t>
+          <t>261.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1060,22 +1060,22 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>775739772.0</t>
+          <t>1647588.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>千附精密</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1085,52 +1085,52 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>35.76%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>22.67%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>8727</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>33.84</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6829</t>
+          <t>6517</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3620.0</t>
+          <t>2479.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>88.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,77 +1217,77 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9935</t>
+          <t>13343</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>-2.97</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>261.0</t>
+          <t>406.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1647588.0</t>
+          <t>1017132.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>千附精密</t>
+          <t>保勝光學</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>35.76%</t>
+          <t>36.23%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>22.67%</t>
+          <t>17.18%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>9053</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
+          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>千附精密-電機機械-上櫃</t>
+          <t>保勝光學-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>33.84</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
+          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>369.0</t>
+          <t>1428.879</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-9.39</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,97 +1534,97 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>128185.0</t>
+          <t>20712053.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>寬宏藝術</t>
+          <t>鄉林</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>30.35%</t>
+          <t>25.68%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>18.56%</t>
+          <t>15.34%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>50.31</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>11047</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>勞務80.95%、工程14.97%、商品銷售4.07% (2023年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>寬宏藝術-文化創意業-上櫃</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6517</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2479.0</t>
+          <t>1281.848</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>88.8</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>20762</t>
+          <t>876</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>406.0</t>
+          <t>156.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1017132.0</t>
+          <t>40716773.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>保勝光學</t>
+          <t>建國</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.79</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>36.23%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>17.18%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>50.31</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
+          <t>工程99.99%、其他0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>保勝光學-光電業-上櫃</t>
+          <t>建國-建材營造-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
+          <t>** 建材營造 - 建材原料、營造業</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7950.346</t>
+          <t>26548.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>43.85</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,172 +1943,172 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-11.19</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>397</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>89207</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>-8.53</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>686178931.0</t>
+          <t>1820640.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>凌華</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>361.3</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>36.66%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>78.18</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>18074</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>商品銷售98.76%、軟體授權及服務1.24% (2024年)</t>
+          <t>航天75.05%、非航太24.95% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>凌華-電腦及週邊設備業-上市</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1428.879</t>
+          <t>3373.064</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>222.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,112 +2185,112 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-7.65</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>20712053.0</t>
+          <t>748209404.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>50.02</t>
+          <t>116.07</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10851</t>
+          <t>49800</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>鄉林恆美94.01%、鄉林玉川4.64%、租金收入1.35% (2023年)</t>
+          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1281.848</t>
+          <t>2560.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-8.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>15380</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>156.0</t>
+          <t>247.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,92 +2507,92 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>40716773.0</t>
+          <t>204502.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>建國</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>50.02</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>工程服務(含機電)99.99%、其他0.01% (2023年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>建國-建材營造-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、營造業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>271.0</t>
+          <t>51210.055</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,202 +2639,202 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-3.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>48.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>105511</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-5.16</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>916</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-1.63</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-5738.0</t>
+          <t>-1063217974.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>國眾</t>
+          <t>漢翔</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>13.94%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3.17%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>27.37</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>49165</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>資訊軟硬體,電腦硬體維護服88.45%、維護服務9.59%、佣金1.85%、其他0.12% (2024年)</t>
+          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>國眾-資訊服務業-上櫃</t>
+          <t>漢翔-航運業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>15.88</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26548.0</t>
+          <t>6486.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>43.85</t>
+          <t>38.15</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,172 +2911,172 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>53802</t>
+          <t>27504</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1820640.0</t>
+          <t>643118172.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>亞航</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>57.91</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>2.87%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>8126</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>航天75.05%、非航太24.95% (2024年)</t>
+          <t>零附件維修類(自修)40.26%、飛機修護24.16%、委外送修及航材買賣22.80%、機隊維持及修護補給裝機計價12.78% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>亞航-航運業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21186.0</t>
+          <t>1212.278</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>39.26</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,77 +3153,77 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>47208</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-7.38</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3233,92 +3233,92 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>7250809.0</t>
+          <t>135839732.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>億光</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>27.60%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>37688</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>乾式PU皮36.20%、濕式PU合成皮29.82%、榔皮26.28%、其他3.69%、租賃2.34%、電力1.67% (2024年)</t>
+          <t>發光二極體(LED)92.05%、照明4.33%、液晶顯示器(LCD)3.15%、其他0.47% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>億光-光電業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>45.71</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、人造纖維</t>
+          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3373.064</t>
+          <t>1218.936</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,142 +3365,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>222.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2382</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>748209404.0</t>
+          <t>115642710.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>三陽工業</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>11.88</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>115.56</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>49800</t>
+          <t>57020</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
+          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>三陽工業-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2560.0</t>
+          <t>5584.401</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-8.94</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,77 +3637,77 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>14.11</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>11897</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3717,92 +3717,92 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>204502.0</t>
+          <t>69478804.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>98.42</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>48.89</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>5653</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3890.671</t>
+          <t>891.238</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,72 +3879,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-7.9</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>235.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3954,37 +3954,37 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>380348777.0</t>
+          <t>11868024.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>銘異</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>60.44</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>4650</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
+          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>銘異-電腦及週邊設備業-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備之零組件</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>51210.055</t>
+          <t>14259.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,27 +4091,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-3.33</t>
+          <t>-4.33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>57.41</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>162</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>59375</t>
+          <t>61846</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,92 +4201,92 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-1063217974.0</t>
+          <t>-23456.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>漢翔</t>
+          <t>精剛</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>-2.28%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>78.18</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>50672</t>
+          <t>7323</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
+          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>漢翔-航運業-上市</t>
+          <t>精剛-其他-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6486.91</t>
+          <t>11419.731</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,142 +4333,142 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>8286</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>38.15</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>13558</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>111.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>643118172.0</t>
+          <t>1094944211.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>亞航</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>58.81</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2.87%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>167575</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>零附件維修類(自修)40.26%、飛機修護24.16%、委外送修及航材買賣22.80%、機隊維持及修護補給裝機計價12.78% (2023年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>亞航-航運業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>16.57</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4542,2184 +4542,6 @@
         </is>
       </c>
       <c r="AV17" t="inlineStr">
-        <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2547</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8254.869</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>13.5</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>7441</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>314050860.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>日勝生</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>49.27%</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>24.39%</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>50.02</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>14129</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>日勝生-建材營造-上市</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>建材營造右上</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2429</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>22454.489</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>49.40</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>65.2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-15.19</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>7893</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-8.13</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>4082893691.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>銘旺科</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>3.38%</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>-21.03%</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>4740</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>銘旺科-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2393</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1212.278</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>84.3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-0.64</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>135839732.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>億光</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>11.17</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>27.60%</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>8.01%</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>37334</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>發光二極體(LED)92.05%、照明4.33%、液晶顯示器(LCD)3.15%、其他0.47% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>億光-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>45.71</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2909.996</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-3.33</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>4878</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>-411793275.0</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>聯強</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>67.9</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>4.69%</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>15.52</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>120259</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>聯強-電子通路業-上市</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>46.22</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>** 半導體 - IC通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1218.936</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>71.6</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1005</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>115642710.0</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>三陽工業</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>11.94</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>20.57%</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>7.38%</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>57339</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>三陽工業-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>汽車工業平</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>31.74</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1810</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5584.401</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>18.4</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>13622</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>69478804.0</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>和成</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>100.79</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>24.72%</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>0.22%</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>48.89</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>5789</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>和成-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>891.238</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>22.3</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>3913</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>11868024.0</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>億泰</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>億泰-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1584</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>14259.0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-4.33</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>49.03</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>28.8</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>10467</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>-23456.0</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>精剛</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>19.62</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>15.15%</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>-2.28%</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>77.78</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>7160</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>精剛-其他-上櫃</t>
-        </is>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>其他右下</t>
-        </is>
-      </c>
-      <c r="AS25" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV25" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11419.731</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>22.35</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>12640</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>1094944211.0</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>166511</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS26" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV26" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
